--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D624941-DA3D-C340-A272-EEFC455A81F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B9FA4F-6C25-CC4A-9111-D7B2251BAA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="195">
   <si>
     <t>MathJobs</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>http://careers.nmsu.edu/cw/en-us/job/498628</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,9 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1122,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1445,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1529,7 @@
       <c r="D2" s="9">
         <v>45194</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>129</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1541,10 +1550,10 @@
       <c r="K2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="51">
+      <c r="L2" s="50">
         <v>2</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="50">
         <v>1</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -1567,34 +1576,34 @@
       <c r="D3" s="14">
         <v>45214</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="52">
+      <c r="F3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="51">
         <v>3</v>
       </c>
-      <c r="M3" s="52">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="62">
+        <v>1</v>
+      </c>
+      <c r="N3" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O3" s="15" t="s">
@@ -1614,7 +1623,7 @@
       <c r="D4" s="11">
         <v>45214</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -1659,34 +1668,34 @@
       <c r="D5" s="11">
         <v>45222</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="52" t="s">
+      <c r="G5" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="63">
-        <v>1</v>
-      </c>
-      <c r="N5" s="62" t="s">
+      <c r="M5" s="62">
+        <v>1</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -1706,82 +1715,82 @@
       <c r="D6" s="14">
         <v>45222</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="52">
+      <c r="F6" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="51">
         <v>3</v>
       </c>
-      <c r="M6" s="63">
-        <v>1</v>
-      </c>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="62">
+        <v>1</v>
+      </c>
+      <c r="N6" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="64">
         <v>45226</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="52" t="s">
+      <c r="F7" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="17" t="s">
+      <c r="N7" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1798,37 +1807,37 @@
       <c r="D8" s="14">
         <v>45231</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="52">
+      <c r="G8" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="51">
         <v>2</v>
       </c>
-      <c r="M8" s="53">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="M8" s="66">
+        <v>1</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1845,7 +1854,7 @@
       <c r="D9" s="14">
         <v>45231</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -1866,13 +1875,13 @@
       <c r="K9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="52">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="51">
+        <v>1</v>
+      </c>
+      <c r="N9" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -1893,34 +1902,34 @@
       <c r="D10" s="11">
         <v>45231</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="52" t="s">
+      <c r="F10" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="52">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="M10" s="62">
+        <v>1</v>
+      </c>
+      <c r="N10" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O10" s="3"/>
@@ -1938,34 +1947,34 @@
       <c r="D11" s="14">
         <v>45231</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="52">
+      <c r="F11" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="51">
         <v>3</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="61" t="s">
         <v>84</v>
       </c>
       <c r="O11" s="15"/>
@@ -1983,34 +1992,34 @@
       <c r="D12" s="14">
         <v>45231</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="F12" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="52">
         <v>3</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="M12" s="51">
+        <v>1</v>
+      </c>
+      <c r="N12" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -2030,34 +2039,34 @@
       <c r="D13" s="14">
         <v>45231</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="52">
+      <c r="F13" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="51">
         <v>3</v>
       </c>
-      <c r="M13" s="52">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="M13" s="62">
+        <v>1</v>
+      </c>
+      <c r="N13" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O13" s="3"/>
@@ -2075,34 +2084,34 @@
       <c r="D14" s="14">
         <v>45231</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="52">
+      <c r="F14" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="51">
         <v>3</v>
       </c>
-      <c r="M14" s="52">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="62">
+        <v>1</v>
+      </c>
+      <c r="N14" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -2122,34 +2131,34 @@
       <c r="D15" s="11">
         <v>45231</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="52">
+      <c r="F15" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="51">
         <v>3</v>
       </c>
-      <c r="M15" s="52">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="M15" s="62">
+        <v>1</v>
+      </c>
+      <c r="N15" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O15" s="3"/>
@@ -2167,34 +2176,34 @@
       <c r="D16" s="14">
         <v>45231</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="52" t="s">
+      <c r="F16" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="52">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="62">
+        <v>1</v>
+      </c>
+      <c r="N16" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O16" s="3"/>
@@ -2212,34 +2221,34 @@
       <c r="D17" s="14">
         <v>45231</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="52">
+      <c r="F17" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="51">
         <v>2</v>
       </c>
-      <c r="M17" s="52">
-        <v>1</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="M17" s="62">
+        <v>1</v>
+      </c>
+      <c r="N17" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O17" s="3"/>
@@ -2257,34 +2266,34 @@
       <c r="D18" s="14">
         <v>45231</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="52">
+      <c r="F18" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="51">
         <v>3</v>
       </c>
-      <c r="M18" s="52">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="M18" s="62">
+        <v>1</v>
+      </c>
+      <c r="N18" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O18" s="3"/>
@@ -2302,34 +2311,34 @@
       <c r="D19" s="14">
         <v>45231</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="52">
+      <c r="F19" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="51">
         <v>3</v>
       </c>
-      <c r="M19" s="52">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="M19" s="62">
+        <v>1</v>
+      </c>
+      <c r="N19" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O19" s="3"/>
@@ -2341,11 +2350,13 @@
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="14">
         <v>45235</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="13" t="s">
@@ -2354,7 +2365,7 @@
       <c r="G20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -2366,16 +2377,16 @@
       <c r="K20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="52">
-        <v>1</v>
-      </c>
-      <c r="M20" s="52">
+      <c r="L20" s="51">
+        <v>1</v>
+      </c>
+      <c r="M20" s="51">
         <v>2</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="57" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2392,34 +2403,34 @@
       <c r="D21" s="14">
         <v>45235</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="52">
+      <c r="F21" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="51">
         <v>2</v>
       </c>
-      <c r="M21" s="52">
-        <v>1</v>
-      </c>
-      <c r="N21" s="8" t="s">
+      <c r="M21" s="62">
+        <v>1</v>
+      </c>
+      <c r="N21" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O21" s="3"/>
@@ -2437,34 +2448,34 @@
       <c r="D22" s="14">
         <v>45236</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="F22" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="52">
+      <c r="J22" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="51">
         <v>3</v>
       </c>
-      <c r="M22" s="52">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="M22" s="62">
+        <v>1</v>
+      </c>
+      <c r="N22" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -2484,34 +2495,34 @@
       <c r="D23" s="14">
         <v>45236</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="52">
+      <c r="F23" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="51">
         <v>3</v>
       </c>
-      <c r="M23" s="52">
-        <v>1</v>
-      </c>
-      <c r="N23" s="8" t="s">
+      <c r="M23" s="62">
+        <v>1</v>
+      </c>
+      <c r="N23" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O23" s="3"/>
@@ -2530,34 +2541,34 @@
       <c r="D24" s="14">
         <v>45237</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="F24" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="52">
+      <c r="J24" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="51">
         <v>3</v>
       </c>
-      <c r="M24" s="52">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8" t="s">
+      <c r="M24" s="62">
+        <v>1</v>
+      </c>
+      <c r="N24" s="61" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -2578,7 +2589,7 @@
       <c r="D25" s="14">
         <v>45239</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -2599,10 +2610,10 @@
       <c r="K25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="51">
         <v>3</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="51">
         <v>1</v>
       </c>
       <c r="N25" s="8" t="s">
@@ -2626,7 +2637,7 @@
       <c r="D26" s="14">
         <v>45242</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="13" t="s">
@@ -2647,10 +2658,10 @@
       <c r="K26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <v>3</v>
       </c>
-      <c r="M26" s="52">
+      <c r="M26" s="51">
         <v>1</v>
       </c>
       <c r="N26" s="8" t="s">
@@ -2672,7 +2683,7 @@
       <c r="D27" s="14">
         <v>45243</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="38" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -2693,10 +2704,10 @@
       <c r="K27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="55" t="s">
+      <c r="L27" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="M27" s="52">
+      <c r="M27" s="51">
         <v>1</v>
       </c>
       <c r="N27" s="8" t="s">
@@ -2718,7 +2729,7 @@
       <c r="D28" s="11">
         <v>45244</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -2739,16 +2750,16 @@
       <c r="K28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="52">
-        <v>1</v>
-      </c>
-      <c r="M28" s="52">
+      <c r="L28" s="51">
+        <v>1</v>
+      </c>
+      <c r="M28" s="51">
         <v>2</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="O28" s="59" t="s">
         <v>112</v>
       </c>
       <c r="P28" s="2"/>
@@ -2766,7 +2777,7 @@
       <c r="D29" s="14">
         <v>45244</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -2787,10 +2798,10 @@
       <c r="K29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="52">
+      <c r="M29" s="51">
         <v>1</v>
       </c>
       <c r="N29" s="8" t="s">
@@ -2814,7 +2825,7 @@
       <c r="D30" s="14">
         <v>45249</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="42" t="s">
         <v>171</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -2860,7 +2871,7 @@
       <c r="D31" s="14">
         <v>45250</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="38" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -2881,10 +2892,10 @@
       <c r="K31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="51">
         <v>3</v>
       </c>
-      <c r="M31" s="52">
+      <c r="M31" s="51">
         <v>1</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -2908,7 +2919,7 @@
       <c r="D32" s="11">
         <v>45260</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="40" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="13"/>
@@ -2937,7 +2948,7 @@
       <c r="D33" s="11">
         <v>45260</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="13"/>
@@ -2966,7 +2977,7 @@
       <c r="D34" s="14">
         <v>45260</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="13" t="s">
@@ -3013,7 +3024,7 @@
       <c r="D35" s="14">
         <v>45260</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -3060,7 +3071,7 @@
       <c r="D36" s="14">
         <v>45260</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="38" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -3081,10 +3092,10 @@
       <c r="K36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="51">
         <v>3</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="51">
         <v>1</v>
       </c>
       <c r="N36" s="8" t="s">
@@ -3105,7 +3116,7 @@
       <c r="D37" s="11">
         <v>45261</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="13" t="s">
@@ -3126,10 +3137,10 @@
       <c r="K37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L37" s="52" t="s">
+      <c r="L37" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="51" t="s">
         <v>88</v>
       </c>
       <c r="N37" s="8" t="s">
@@ -3152,7 +3163,7 @@
       <c r="D38" s="11">
         <v>45261</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -3173,10 +3184,10 @@
       <c r="K38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L38" s="61">
+      <c r="L38" s="60">
         <v>3</v>
       </c>
-      <c r="M38" s="61">
+      <c r="M38" s="60">
         <v>1</v>
       </c>
       <c r="N38" s="8"/>
@@ -3197,7 +3208,7 @@
       <c r="D39" s="11">
         <v>45261</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="30" t="s">
         <v>119</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -3218,10 +3229,10 @@
       <c r="K39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="51">
         <v>2</v>
       </c>
-      <c r="M39" s="52">
+      <c r="M39" s="51">
         <v>1</v>
       </c>
       <c r="N39" s="8" t="s">
@@ -3244,7 +3255,7 @@
       <c r="D40" s="14">
         <v>45261</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="30" t="s">
         <v>136</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -3265,10 +3276,10 @@
       <c r="K40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="51">
         <v>2</v>
       </c>
-      <c r="M40" s="52">
+      <c r="M40" s="51">
         <v>1</v>
       </c>
       <c r="N40" s="8" t="s">
@@ -3289,7 +3300,7 @@
       <c r="D41" s="14">
         <v>45268</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="58" t="s">
         <v>192</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -3310,16 +3321,16 @@
       <c r="K41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L41" s="52" t="s">
+      <c r="L41" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M41" s="52">
+      <c r="M41" s="51">
         <v>1</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O41" s="58" t="s">
+      <c r="O41" s="57" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3336,7 +3347,7 @@
       <c r="D42" s="11">
         <v>45270</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="30" t="s">
         <v>105</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -3357,10 +3368,10 @@
       <c r="K42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="51">
         <v>3</v>
       </c>
-      <c r="M42" s="52">
+      <c r="M42" s="51">
         <v>1</v>
       </c>
       <c r="N42" s="8" t="s">
@@ -3383,7 +3394,7 @@
       <c r="D43" s="14">
         <v>45474</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -3430,7 +3441,7 @@
       <c r="D44" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -3516,49 +3527,49 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="33">
         <v>45231</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="33" t="s">
+      <c r="F48" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" s="33">
+      <c r="J48" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" s="32">
         <v>3</v>
       </c>
-      <c r="M48" s="33" t="s">
+      <c r="M48" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="N48" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="O48" s="33" t="s">
+      <c r="N48" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3699,7 +3710,7 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="14"/>
@@ -3713,7 +3724,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="20"/>
+      <c r="O57" s="19"/>
     </row>
     <row r="58" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
@@ -3801,28 +3812,28 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="25"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="18"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="13"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3835,21 +3846,21 @@
       <c r="O64" s="15"/>
     </row>
     <row r="65" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="28"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="27"/>
     </row>
     <row r="66" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
@@ -3951,7 +3962,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="29"/>
+      <c r="O71" s="28"/>
     </row>
     <row r="72" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
@@ -4189,7 +4200,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="20"/>
+      <c r="O85" s="19"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O44">
@@ -4253,23 +4264,23 @@
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>155</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -4283,28 +4294,28 @@
       <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>45226</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>156</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -4321,25 +4332,25 @@
       <c r="B3" s="9">
         <v>45231</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>156</v>
       </c>
       <c r="J3" s="3">
@@ -4356,25 +4367,25 @@
       <c r="B4" s="11">
         <v>45231</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>156</v>
       </c>
       <c r="J4" s="3">
@@ -4391,15 +4402,15 @@
       <c r="B5" s="9">
         <v>45231</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="3">
         <v>2</v>
       </c>
@@ -4411,28 +4422,28 @@
       <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>45231</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="49"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="3" t="s">
         <v>92</v>
       </c>
@@ -4447,25 +4458,25 @@
       <c r="B7" s="14">
         <v>45231</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="3" t="s">
         <v>92</v>
       </c>
@@ -4480,25 +4491,25 @@
       <c r="B8" s="14">
         <v>45231</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="3">
         <v>3</v>
       </c>
@@ -4513,15 +4524,15 @@
       <c r="B9" s="14">
         <v>45231</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="4">
         <v>3</v>
       </c>
@@ -4536,25 +4547,25 @@
       <c r="B10" s="14">
         <v>45231</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="3">
         <v>3</v>
       </c>
@@ -4569,25 +4580,25 @@
       <c r="B11" s="14">
         <v>45235</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>160</v>
       </c>
       <c r="J11" s="3">
@@ -4604,25 +4615,25 @@
       <c r="B12" s="14">
         <v>45239</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="53" t="s">
         <v>160</v>
       </c>
       <c r="J12" s="3">
@@ -4639,25 +4650,25 @@
       <c r="B13" s="14">
         <v>45242</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="53" t="s">
         <v>160</v>
       </c>
       <c r="J13" s="3">
@@ -4674,25 +4685,25 @@
       <c r="B14" s="11">
         <v>45244</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="53" t="s">
         <v>160</v>
       </c>
       <c r="J14" s="3">
@@ -4709,25 +4720,25 @@
       <c r="B15" s="14">
         <v>45244</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>158</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -4744,15 +4755,15 @@
       <c r="B16" s="14">
         <v>45260</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="3" t="s">
         <v>86</v>
       </c>
@@ -4767,25 +4778,25 @@
       <c r="B17" s="11">
         <v>45261</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="53" t="s">
         <v>160</v>
       </c>
       <c r="J17" s="3">
@@ -4802,21 +4813,21 @@
       <c r="B18" s="11">
         <v>45261</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="56" t="s">
+      <c r="E18" s="47"/>
+      <c r="F18" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="56" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="55" t="s">
         <v>158</v>
       </c>
       <c r="J18" s="3">
@@ -4833,25 +4844,25 @@
       <c r="B19" s="11">
         <v>45261</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="55" t="s">
         <v>156</v>
       </c>
       <c r="J19" s="3">
@@ -4868,25 +4879,25 @@
       <c r="B20" s="14">
         <v>45261</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="55" t="s">
         <v>156</v>
       </c>
       <c r="J20" s="3">
@@ -4903,25 +4914,25 @@
       <c r="B21" s="11">
         <v>45270</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="53" t="s">
         <v>160</v>
       </c>
       <c r="J21" s="3">
@@ -4938,15 +4949,15 @@
       <c r="B22" s="14">
         <v>45474</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="3" t="s">
         <v>88</v>
       </c>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949DDC7-7892-C144-9A80-109D7FCE9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE793F-F7F6-594F-B54D-22484EACA144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -1426,8 +1426,8 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2644,95 +2644,95 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="52">
         <v>45245</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="F27" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="50">
         <v>2</v>
       </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="3"/>
+      <c r="M27" s="50">
+        <v>1</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="50"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="52">
         <v>45247</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="F28" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="50">
         <v>2</v>
       </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="3"/>
+      <c r="M28" s="50">
+        <v>1</v>
+      </c>
+      <c r="N28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="50"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE793F-F7F6-594F-B54D-22484EACA144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2D30C-8129-FF47-A91F-472FAF089F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,8 +1426,8 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2736,49 +2736,49 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="52">
         <v>45249</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="F29" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="50">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="3"/>
+      <c r="M29" s="50">
+        <v>1</v>
+      </c>
+      <c r="N29" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -2828,49 +2828,49 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="52">
         <v>45250</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="F31" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="50">
         <v>2</v>
       </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" s="14" t="s">
+      <c r="M31" s="50">
+        <v>1</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" s="57" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3027,37 +3027,37 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="52">
         <v>45260</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="F36" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="50" t="s">
         <v>80</v>
       </c>
       <c r="L36" s="50">
@@ -3066,10 +3066,10 @@
       <c r="M36" s="50">
         <v>1</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O36" s="3"/>
+      <c r="N36" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2D30C-8129-FF47-A91F-472FAF089F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02C3DB-EA23-A346-B37A-7F081E3D467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,8 +1426,8 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2596,37 +2596,37 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="52">
         <v>45244</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="F26" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="50" t="s">
         <v>80</v>
       </c>
       <c r="L26" s="50" t="s">
@@ -2635,10 +2635,10 @@
       <c r="M26" s="50">
         <v>1</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="3" t="s">
+      <c r="N26" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="50" t="s">
         <v>82</v>
       </c>
       <c r="P26" s="2"/>
@@ -3256,49 +3256,49 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="56">
         <v>45261</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="F41" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="M41" s="3">
-        <v>1</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O41" s="46" t="s">
+      <c r="M41" s="50">
+        <v>1</v>
+      </c>
+      <c r="N41" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" s="58" t="s">
         <v>184</v>
       </c>
     </row>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02C3DB-EA23-A346-B37A-7F081E3D467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4EEE66-D318-6F47-897B-903F60E4037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="206">
   <si>
     <t>MathJobs</t>
   </si>
@@ -540,12 +540,6 @@
     <t>University of Toronto Scarborough</t>
   </si>
   <si>
-    <t>UofT-MATHTEACHSTREAM</t>
-  </si>
-  <si>
-    <t>TT Teaching</t>
-  </si>
-  <si>
     <t>University of Waterloo</t>
   </si>
   <si>
@@ -652,6 +646,15 @@
   </si>
   <si>
     <t>https://www.4cdcareers.net/postings/10163</t>
+  </si>
+  <si>
+    <t>University of Hawaii</t>
+  </si>
+  <si>
+    <t>529-TT1</t>
+  </si>
+  <si>
+    <t>2+</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5D6C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1022,9 +1031,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,9 +1073,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,6 +1104,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1423,11 +1447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,1390 +1512,1372 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="59">
         <v>45214</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="50">
+      <c r="F2" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="48">
         <v>3</v>
       </c>
-      <c r="M2" s="50">
-        <v>1</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="57" t="s">
+      <c r="M2" s="48">
+        <v>1</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>45222</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="50" t="s">
+      <c r="G3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="50">
-        <v>1</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="50" t="s">
+      <c r="M3" s="48">
+        <v>1</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="50">
         <v>45222</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="50">
+      <c r="F4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="48">
         <v>3</v>
       </c>
-      <c r="M4" s="50">
-        <v>1</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="50"/>
+      <c r="M4" s="48">
+        <v>1</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>45226</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="50" t="s">
+      <c r="F5" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="53" t="s">
+      <c r="N5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="50">
         <v>45231</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="50">
+      <c r="G6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="48">
         <v>2</v>
       </c>
-      <c r="M6" s="54">
-        <v>1</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="50" t="s">
+      <c r="M6" s="52">
+        <v>1</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="48" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>45231</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="50" t="s">
+      <c r="F7" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="50">
-        <v>1</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="50"/>
+      <c r="M7" s="48">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="50">
         <v>45231</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="50">
+      <c r="F8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="48">
         <v>3</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="57"/>
+      <c r="N8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>45231</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="54">
+      <c r="F9" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="52">
         <v>3</v>
       </c>
-      <c r="M9" s="50">
-        <v>1</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="50" t="s">
+      <c r="M9" s="48">
+        <v>1</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="50">
         <v>45231</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="50">
+      <c r="F10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="48">
         <v>3</v>
       </c>
-      <c r="M10" s="50">
-        <v>1</v>
-      </c>
-      <c r="N10" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="50"/>
+      <c r="M10" s="48">
+        <v>1</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="50">
         <v>45231</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="50">
+      <c r="F11" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="48">
         <v>3</v>
       </c>
-      <c r="M11" s="50">
-        <v>1</v>
-      </c>
-      <c r="N11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="50" t="s">
+      <c r="M11" s="48">
+        <v>1</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="48" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>45231</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="50">
+      <c r="F12" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="48">
         <v>3</v>
       </c>
-      <c r="M12" s="50">
-        <v>1</v>
-      </c>
-      <c r="N12" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="50"/>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="50">
         <v>45231</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="50" t="s">
+      <c r="F13" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="50">
-        <v>1</v>
-      </c>
-      <c r="N13" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="50"/>
+      <c r="M13" s="48">
+        <v>1</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="50">
         <v>45231</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="50">
+      <c r="F14" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="48">
         <v>2</v>
       </c>
-      <c r="M14" s="50">
-        <v>1</v>
-      </c>
-      <c r="N14" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="50"/>
+      <c r="M14" s="48">
+        <v>1</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="50">
         <v>45231</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="50">
+      <c r="F15" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="48">
         <v>3</v>
       </c>
-      <c r="M15" s="50">
-        <v>1</v>
-      </c>
-      <c r="N15" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="50"/>
+      <c r="M15" s="48">
+        <v>1</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="50" t="s">
+      <c r="A16" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="50">
         <v>45231</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="50">
+      <c r="F16" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="48">
         <v>3</v>
       </c>
-      <c r="M16" s="50">
-        <v>1</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" s="50"/>
+      <c r="M16" s="48">
+        <v>1</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="50">
         <v>45235</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="55" t="s">
+      <c r="F17" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="50">
-        <v>1</v>
-      </c>
-      <c r="M17" s="50">
+      <c r="K17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="48">
+        <v>1</v>
+      </c>
+      <c r="M17" s="48">
         <v>2</v>
       </c>
-      <c r="N17" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" s="58" t="s">
+      <c r="N17" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="56" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="50">
         <v>45235</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="50">
+      <c r="F18" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="48">
         <v>2</v>
       </c>
-      <c r="M18" s="50">
-        <v>1</v>
-      </c>
-      <c r="N18" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" s="50"/>
+      <c r="M18" s="48">
+        <v>1</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="50">
         <v>45236</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="F19" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="50">
+      <c r="J19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="48">
         <v>3</v>
       </c>
-      <c r="M19" s="50">
-        <v>1</v>
-      </c>
-      <c r="N19" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" s="50" t="s">
+      <c r="M19" s="48">
+        <v>1</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="48" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="A20" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="50">
         <v>45236</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="50">
+      <c r="F20" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="48">
         <v>3</v>
       </c>
-      <c r="M20" s="50">
-        <v>1</v>
-      </c>
-      <c r="N20" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="50"/>
+      <c r="M20" s="48">
+        <v>1</v>
+      </c>
+      <c r="N20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="48"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="50">
         <v>45237</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="50" t="s">
+      <c r="F21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="50">
+      <c r="J21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="48">
         <v>3</v>
       </c>
-      <c r="M21" s="50">
-        <v>1</v>
-      </c>
-      <c r="N21" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" s="50" t="s">
+      <c r="M21" s="48">
+        <v>1</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="48" t="s">
         <v>163</v>
       </c>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="50">
         <v>45239</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="50">
+      <c r="F22" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="48">
         <v>3</v>
       </c>
-      <c r="M22" s="50">
-        <v>1</v>
-      </c>
-      <c r="N22" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="57" t="s">
+      <c r="M22" s="48">
+        <v>1</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="55" t="s">
         <v>89</v>
       </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="50">
         <v>45242</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="50">
+      <c r="F23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="48">
         <v>4</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="48">
         <v>0</v>
       </c>
-      <c r="N23" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="54"/>
+      <c r="N23" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" s="52"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="50">
         <v>45243</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="59" t="s">
+      <c r="F24" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="50">
-        <v>1</v>
-      </c>
-      <c r="N24" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" s="50"/>
+      <c r="M24" s="48">
+        <v>1</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="48"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="54">
         <v>45244</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="42">
-        <v>1</v>
-      </c>
-      <c r="M25" s="42">
+      <c r="J25" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="48">
+        <v>1</v>
+      </c>
+      <c r="M25" s="48">
         <v>2</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" s="48" t="s">
+      <c r="N25" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="63" t="s">
         <v>104</v>
       </c>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="50">
         <v>45244</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="50" t="s">
+      <c r="F26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M26" s="50">
-        <v>1</v>
-      </c>
-      <c r="N26" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="50" t="s">
+      <c r="M26" s="48">
+        <v>1</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="48" t="s">
         <v>82</v>
       </c>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="50" t="s">
+      <c r="A27" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="50">
         <v>45245</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="50">
+      <c r="F27" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="48">
         <v>2</v>
       </c>
-      <c r="M27" s="50">
-        <v>1</v>
-      </c>
-      <c r="N27" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="50"/>
+      <c r="M27" s="48">
+        <v>1</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="48"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="54" t="s">
+      <c r="A28" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="50">
         <v>45247</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="50">
+      <c r="F28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="48">
         <v>2</v>
       </c>
-      <c r="M28" s="50">
-        <v>1</v>
-      </c>
-      <c r="N28" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="50"/>
+      <c r="M28" s="48">
+        <v>1</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="48"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="62">
         <v>45249</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="50">
+      <c r="F29" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="48">
         <v>3</v>
       </c>
-      <c r="M29" s="50">
-        <v>1</v>
-      </c>
-      <c r="N29" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="50"/>
+      <c r="M29" s="48">
+        <v>1</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="48"/>
     </row>
     <row r="30" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="A30" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="50">
         <v>45250</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="50">
-        <v>3</v>
-      </c>
-      <c r="M30" s="50">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>163</v>
+      <c r="E30" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="48">
+        <v>2</v>
+      </c>
+      <c r="M30" s="48">
+        <v>1</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="55" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="52">
-        <v>45250</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="50">
-        <v>2</v>
-      </c>
-      <c r="M31" s="50">
-        <v>1</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" s="57" t="s">
-        <v>196</v>
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="10">
+        <v>45260</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,16 +2885,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="10">
         <v>45260</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>21</v>
+      <c r="E32" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="3"/>
@@ -2905,225 +2911,241 @@
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="10">
+        <v>40</v>
+      </c>
+      <c r="D33" s="13">
         <v>45260</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="3" t="s">
-        <v>22</v>
+      <c r="E33" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="13">
         <v>45260</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>80</v>
+      <c r="L34" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="O34" s="14" t="s">
-        <v>92</v>
+      <c r="O34" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="50">
         <v>45260</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L35" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="M35" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="E35" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="48">
+        <v>3</v>
+      </c>
+      <c r="M35" s="48">
+        <v>1</v>
+      </c>
+      <c r="N35" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="48"/>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="50" t="s">
+      <c r="A36" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="52">
-        <v>45260</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36" s="50">
+      <c r="D36" s="54">
+        <v>45261</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="54">
+        <v>45261</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="48">
         <v>3</v>
       </c>
-      <c r="M36" s="50">
-        <v>1</v>
-      </c>
-      <c r="N36" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O36" s="50"/>
-    </row>
-    <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="10">
-        <v>45261</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>93</v>
+      <c r="M37" s="48">
+        <v>1</v>
+      </c>
+      <c r="N37" s="47"/>
+      <c r="O37" s="48" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>37</v>
@@ -3132,7 +3154,7 @@
         <v>45261</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>79</v>
@@ -3141,43 +3163,45 @@
         <v>79</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>79</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="50">
-        <v>3</v>
-      </c>
-      <c r="M38" s="50">
-        <v>1</v>
-      </c>
-      <c r="N38" s="8"/>
+      <c r="L38" s="41">
+        <v>2</v>
+      </c>
+      <c r="M38" s="41">
+        <v>1</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="O38" s="3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="13">
         <v>45261</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>79</v>
@@ -3186,175 +3210,173 @@
         <v>79</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>79</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="41">
         <v>2</v>
       </c>
-      <c r="M39" s="42">
-        <v>1</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="M39" s="41">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="54">
         <v>45261</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L40" s="42">
-        <v>2</v>
-      </c>
-      <c r="M40" s="42">
-        <v>1</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" s="3"/>
+      <c r="E40" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="48">
+        <v>1</v>
+      </c>
+      <c r="N40" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40" s="56" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="50">
         <v>45261</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="L41" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="50">
-        <v>1</v>
-      </c>
-      <c r="N41" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="O41" s="58" t="s">
-        <v>184</v>
+      <c r="F41" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="48">
+        <v>3</v>
+      </c>
+      <c r="M41" s="48">
+        <v>1</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" s="56" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="13">
-        <v>45261</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O42" s="46" t="s">
-        <v>187</v>
-      </c>
+      <c r="D42" s="50">
+        <v>45264</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" s="48">
+        <v>1</v>
+      </c>
+      <c r="N42" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42" s="56"/>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>37</v>
@@ -3362,8 +3384,8 @@
       <c r="D43" s="13">
         <v>45264</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>201</v>
+      <c r="E43" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>79</v>
@@ -3396,10 +3418,10 @@
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>37</v>
@@ -3407,8 +3429,8 @@
       <c r="D44" s="13">
         <v>45268</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>179</v>
+      <c r="E44" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>79</v>
@@ -3428,34 +3450,34 @@
       <c r="K44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="41">
         <v>1</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O44" s="46" t="s">
-        <v>180</v>
+      <c r="O44" s="45" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D45" s="13">
         <v>45268</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>204</v>
+      <c r="E45" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>79</v>
@@ -3520,10 +3542,10 @@
       <c r="K46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>3</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="41">
         <v>1</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -3646,8 +3668,8 @@
     </row>
     <row r="50" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="13"/>
       <c r="E50" s="11"/>
       <c r="F50" s="12"/>
@@ -3679,9 +3701,9 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="13"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
@@ -3693,10 +3715,10 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="13"/>
@@ -3710,14 +3732,14 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="18"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="12"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3725,7 +3747,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
@@ -3734,7 +3756,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="12"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -3742,15 +3764,15 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="4"/>
+      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="3"/>
@@ -3761,13 +3783,13 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="14"/>
+      <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="10"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="3"/>
@@ -3781,78 +3803,78 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="23"/>
     </row>
     <row r="59" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="23"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="14"/>
     </row>
     <row r="60" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="14"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="26"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="11"/>
       <c r="F62" s="12"/>
       <c r="G62" s="3"/>
@@ -3901,9 +3923,9 @@
     </row>
     <row r="65" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="3"/>
@@ -3918,9 +3940,9 @@
     </row>
     <row r="66" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="10"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="11"/>
       <c r="F66" s="12"/>
       <c r="G66" s="3"/>
@@ -3931,7 +3953,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="O66" s="27"/>
     </row>
     <row r="67" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
@@ -3948,13 +3970,13 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="27"/>
+      <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="13"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="11"/>
       <c r="F68" s="12"/>
       <c r="G68" s="3"/>
@@ -3971,7 +3993,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="10"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="11"/>
       <c r="F69" s="12"/>
       <c r="G69" s="3"/>
@@ -4005,7 +4027,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="11"/>
       <c r="F71" s="12"/>
       <c r="G71" s="3"/>
@@ -4022,7 +4044,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="10"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="11"/>
       <c r="F72" s="12"/>
       <c r="G72" s="3"/>
@@ -4039,7 +4061,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="11"/>
       <c r="F73" s="12"/>
       <c r="G73" s="3"/>
@@ -4073,7 +4095,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="10"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="11"/>
       <c r="F75" s="12"/>
       <c r="G75" s="3"/>
@@ -4107,7 +4129,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="11"/>
       <c r="F77" s="12"/>
       <c r="G77" s="3"/>
@@ -4155,7 +4177,7 @@
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -4169,36 +4191,19 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="18"/>
+      <c r="O80" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O48">
     <sortCondition ref="D2:D48"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1" xr:uid="{72FC676A-AC40-474F-8A00-97CE0920DFE3}"/>
-    <hyperlink ref="E37" r:id="rId2" xr:uid="{408C50BB-3FB7-874E-A9D3-52CD8A890A65}"/>
-    <hyperlink ref="E34" r:id="rId3" xr:uid="{D7928A85-CB71-7547-977A-88820EA34394}"/>
+    <hyperlink ref="E31" r:id="rId1" xr:uid="{72FC676A-AC40-474F-8A00-97CE0920DFE3}"/>
+    <hyperlink ref="E36" r:id="rId2" xr:uid="{408C50BB-3FB7-874E-A9D3-52CD8A890A65}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{D7928A85-CB71-7547-977A-88820EA34394}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{659D0A29-DC1B-AC4D-9C44-351C433315D1}"/>
-    <hyperlink ref="E35" r:id="rId5" xr:uid="{1FFB3DA8-A83B-604C-AF00-CC9B688D5C41}"/>
-    <hyperlink ref="E38" r:id="rId6" xr:uid="{DF48D68A-4DF4-2D4D-A406-7ADF732467DF}"/>
+    <hyperlink ref="E34" r:id="rId5" xr:uid="{1FFB3DA8-A83B-604C-AF00-CC9B688D5C41}"/>
+    <hyperlink ref="E37" r:id="rId6" xr:uid="{DF48D68A-4DF4-2D4D-A406-7ADF732467DF}"/>
     <hyperlink ref="E22" r:id="rId7" xr:uid="{37DCDDA5-A0E3-BC40-998F-F7496011D4A9}"/>
     <hyperlink ref="E48" r:id="rId8" xr:uid="{6C8DEB3D-2489-DA49-9B36-DF6C5B60F13D}"/>
     <hyperlink ref="E23" r:id="rId9" xr:uid="{4967B497-2A7B-1F46-AF30-82CC9B2263B1}"/>
@@ -4208,15 +4213,15 @@
     <hyperlink ref="E47" r:id="rId13" xr:uid="{FBE82E48-900D-DC40-AA49-5972688C3486}"/>
     <hyperlink ref="E46" r:id="rId14" xr:uid="{B240C270-AEF3-6445-9837-A4214B538FE6}"/>
     <hyperlink ref="E11" r:id="rId15" xr:uid="{EFBDB97B-62C6-734E-8C18-3B829D420377}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{4A6635C5-BAB2-5147-895C-A55175AB2971}"/>
+    <hyperlink ref="E38" r:id="rId16" xr:uid="{4A6635C5-BAB2-5147-895C-A55175AB2971}"/>
     <hyperlink ref="E3" r:id="rId17" xr:uid="{F4FD0EFF-3A5D-7747-8CEC-E7BD94FB215A}"/>
-    <hyperlink ref="E40" r:id="rId18" xr:uid="{C5312910-E74B-D54B-BB70-504F4CC4A3B4}"/>
+    <hyperlink ref="E39" r:id="rId18" xr:uid="{C5312910-E74B-D54B-BB70-504F4CC4A3B4}"/>
     <hyperlink ref="O17" r:id="rId19" xr:uid="{7EF1A921-F70B-7945-97B8-0DF724F990EE}"/>
     <hyperlink ref="E29" r:id="rId20" xr:uid="{32446990-0D28-404E-83D0-7FAC628BBBC6}"/>
-    <hyperlink ref="O41" r:id="rId21" xr:uid="{ADEEE20E-9AE4-284E-9698-34FC8DD78141}"/>
+    <hyperlink ref="O40" r:id="rId21" xr:uid="{ADEEE20E-9AE4-284E-9698-34FC8DD78141}"/>
     <hyperlink ref="O44" r:id="rId22" xr:uid="{EFC9D24B-C88B-624A-AA68-95CFAA342D0B}"/>
-    <hyperlink ref="O42" r:id="rId23" xr:uid="{2DBB6575-36C7-D441-88D9-FFE8C6E51929}"/>
-    <hyperlink ref="E31" r:id="rId24" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
+    <hyperlink ref="O41" r:id="rId23" xr:uid="{2DBB6575-36C7-D441-88D9-FFE8C6E51929}"/>
+    <hyperlink ref="E30" r:id="rId24" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
     <hyperlink ref="E43" r:id="rId25" xr:uid="{FB1B3BCA-EEA9-AC4B-9401-89680D93C3EC}"/>
     <hyperlink ref="E45" r:id="rId26" xr:uid="{A352118D-94A1-0C40-9BAB-D46A19B976E4}"/>
   </hyperlinks>
@@ -4252,23 +4257,23 @@
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>142</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -4285,25 +4290,25 @@
       <c r="B2" s="28">
         <v>45226</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>143</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -4320,25 +4325,25 @@
       <c r="B3" s="9">
         <v>45231</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>143</v>
       </c>
       <c r="J3" s="3">
@@ -4355,25 +4360,25 @@
       <c r="B4" s="10">
         <v>45231</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="43" t="s">
         <v>143</v>
       </c>
       <c r="J4" s="3">
@@ -4390,15 +4395,15 @@
       <c r="B5" s="9">
         <v>45231</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="3">
         <v>2</v>
       </c>
@@ -4410,28 +4415,28 @@
       <c r="A6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>45231</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="3" t="s">
         <v>85</v>
       </c>
@@ -4446,25 +4451,25 @@
       <c r="B7" s="13">
         <v>45231</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="3" t="s">
         <v>85</v>
       </c>
@@ -4479,25 +4484,25 @@
       <c r="B8" s="13">
         <v>45231</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="41"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="3">
         <v>3</v>
       </c>
@@ -4512,15 +4517,15 @@
       <c r="B9" s="13">
         <v>45231</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="4">
         <v>3</v>
       </c>
@@ -4535,25 +4540,25 @@
       <c r="B10" s="13">
         <v>45231</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="41"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="3">
         <v>3</v>
       </c>
@@ -4568,25 +4573,25 @@
       <c r="B11" s="13">
         <v>45235</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="42" t="s">
         <v>147</v>
       </c>
       <c r="J11" s="3">
@@ -4603,25 +4608,25 @@
       <c r="B12" s="13">
         <v>45239</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="42" t="s">
         <v>147</v>
       </c>
       <c r="J12" s="3">
@@ -4638,25 +4643,25 @@
       <c r="B13" s="13">
         <v>45242</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>147</v>
       </c>
       <c r="J13" s="3">
@@ -4673,25 +4678,25 @@
       <c r="B14" s="10">
         <v>45244</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="42" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="3">
@@ -4708,25 +4713,25 @@
       <c r="B15" s="13">
         <v>45244</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="43" t="s">
         <v>145</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -4743,15 +4748,15 @@
       <c r="B16" s="13">
         <v>45260</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="3" t="s">
         <v>81</v>
       </c>
@@ -4766,25 +4771,25 @@
       <c r="B17" s="10">
         <v>45261</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="42" t="s">
         <v>147</v>
       </c>
       <c r="J17" s="3">
@@ -4801,21 +4806,21 @@
       <c r="B18" s="10">
         <v>45261</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="44" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="44" t="s">
+      <c r="H18" s="38"/>
+      <c r="I18" s="43" t="s">
         <v>145</v>
       </c>
       <c r="J18" s="3">
@@ -4832,25 +4837,25 @@
       <c r="B19" s="10">
         <v>45261</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="43" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="3">
@@ -4867,25 +4872,25 @@
       <c r="B20" s="13">
         <v>45261</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="3">
@@ -4902,25 +4907,25 @@
       <c r="B21" s="10">
         <v>45270</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="42" t="s">
         <v>147</v>
       </c>
       <c r="J21" s="3">
@@ -4937,15 +4942,15 @@
       <c r="B22" s="13">
         <v>45474</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="3" t="s">
         <v>83</v>
       </c>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4EEE66-D318-6F47-897B-903F60E4037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9B3AF-A4AF-3E4B-B55E-84A37F5E024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -1450,8 +1450,8 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9B3AF-A4AF-3E4B-B55E-84A37F5E024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973D768-0B7F-8345-8AFE-05B45BE76E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -1450,8 +1450,8 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3174,10 +3174,10 @@
       <c r="K38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="48">
         <v>2</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="48">
         <v>1</v>
       </c>
       <c r="N38" s="8" t="s">
@@ -3188,49 +3188,49 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="50">
         <v>45261</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L39" s="41">
+      <c r="F39" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="48">
         <v>2</v>
       </c>
-      <c r="M39" s="41">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" s="3"/>
+      <c r="M39" s="48">
+        <v>1</v>
+      </c>
+      <c r="N39" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="48"/>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973D768-0B7F-8345-8AFE-05B45BE76E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5BF9D0-6517-B04C-AD77-4B9ADD48E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -1450,8 +1450,8 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:O39"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3141,37 +3141,37 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="54">
         <v>45261</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="F38" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" s="48" t="s">
         <v>80</v>
       </c>
       <c r="L38" s="48">
@@ -3180,10 +3180,10 @@
       <c r="M38" s="48">
         <v>1</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" s="3" t="s">
+      <c r="N38" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" s="48" t="s">
         <v>112</v>
       </c>
     </row>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5BF9D0-6517-B04C-AD77-4B9ADD48E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CC771-E225-E541-BEEE-D910212D45BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1450,8 +1450,8 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:O38"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2957,37 +2957,37 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="50">
         <v>45260</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="F34" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="48" t="s">
         <v>80</v>
       </c>
       <c r="L34" s="48" t="s">
@@ -2996,10 +2996,10 @@
       <c r="M34" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="N34" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" s="48" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CC771-E225-E541-BEEE-D910212D45BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBBBF85-27EA-6C40-8D44-6D93DF62F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="198">
   <si>
     <t>MathJobs</t>
   </si>
@@ -96,24 +96,6 @@
     <t>University of Washington</t>
   </si>
   <si>
-    <t>842-DOI</t>
-  </si>
-  <si>
-    <t>Art of Problem Solving</t>
-  </si>
-  <si>
-    <t>https://grnh.se/35a4a16f3us</t>
-  </si>
-  <si>
-    <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>842-MATHDEV</t>
-  </si>
-  <si>
-    <t>https://grnh.se/b8b2c9793us</t>
-  </si>
-  <si>
     <t>California Polytechnic State University, San Luis Obispo</t>
   </si>
   <si>
@@ -340,12 +322,6 @@
   </si>
   <si>
     <t>AMS Coversheet, A list of external funding secured</t>
-  </si>
-  <si>
-    <t>Directof of Online Instruction</t>
-  </si>
-  <si>
-    <t>Math Developer</t>
   </si>
   <si>
     <t>2 Pages</t>
@@ -933,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1122,9 +1098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,11 +1420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>13</v>
@@ -1516,34 +1489,34 @@
         <v>18</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="59">
         <v>45214</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L2" s="48">
         <v>3</v>
@@ -1552,68 +1525,68 @@
         <v>1</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="54">
         <v>45222</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>85</v>
-      </c>
       <c r="M3" s="48">
         <v>1</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="50">
         <v>45222</v>
@@ -1622,22 +1595,22 @@
         <v>0</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L4" s="48">
         <v>3</v>
@@ -1646,66 +1619,66 @@
         <v>1</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="50">
         <v>45226</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="50">
         <v>45231</v>
@@ -1714,22 +1687,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" s="48">
         <v>2</v>
@@ -1738,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="48" t="s">
         <v>80</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1749,10 +1722,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="54">
         <v>45231</v>
@@ -1761,76 +1734,76 @@
         <v>0</v>
       </c>
       <c r="F7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>85</v>
-      </c>
       <c r="M7" s="48">
         <v>1</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" s="50">
         <v>45231</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L8" s="48">
         <v>3</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O8" s="55"/>
     </row>
@@ -1839,34 +1812,34 @@
         <v>16</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" s="50">
         <v>45231</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L9" s="52">
         <v>3</v>
@@ -1875,21 +1848,21 @@
         <v>1</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" s="50">
         <v>45231</v>
@@ -1898,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L10" s="48">
         <v>3</v>
@@ -1922,43 +1895,43 @@
         <v>1</v>
       </c>
       <c r="N10" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="50">
         <v>45231</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L11" s="48">
         <v>3</v>
@@ -1967,21 +1940,21 @@
         <v>1</v>
       </c>
       <c r="N11" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12" s="54">
         <v>45231</v>
@@ -1990,22 +1963,22 @@
         <v>0</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L12" s="48">
         <v>3</v>
@@ -2014,19 +1987,19 @@
         <v>1</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O12" s="48"/>
     </row>
     <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D13" s="50">
         <v>45231</v>
@@ -2035,43 +2008,43 @@
         <v>0</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G13" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>85</v>
-      </c>
       <c r="M13" s="48">
         <v>1</v>
       </c>
       <c r="N13" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14" s="50">
         <v>45231</v>
@@ -2080,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L14" s="48">
         <v>2</v>
@@ -2104,19 +2077,19 @@
         <v>1</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" s="50">
         <v>45231</v>
@@ -2125,22 +2098,22 @@
         <v>0</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L15" s="48">
         <v>3</v>
@@ -2149,19 +2122,19 @@
         <v>1</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" s="50">
         <v>45231</v>
@@ -2170,22 +2143,22 @@
         <v>0</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L16" s="48">
         <v>3</v>
@@ -2194,43 +2167,43 @@
         <v>1</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="50">
         <v>45235</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L17" s="48">
         <v>1</v>
@@ -2239,21 +2212,21 @@
         <v>2</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O17" s="56" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" s="50">
         <v>45235</v>
@@ -2262,22 +2235,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L18" s="48">
         <v>2</v>
@@ -2286,19 +2259,19 @@
         <v>1</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D19" s="50">
         <v>45236</v>
@@ -2307,22 +2280,22 @@
         <v>0</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L19" s="48">
         <v>3</v>
@@ -2331,21 +2304,21 @@
         <v>1</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20" s="50">
         <v>45236</v>
@@ -2354,22 +2327,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L20" s="48">
         <v>3</v>
@@ -2378,20 +2351,20 @@
         <v>1</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O20" s="48"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D21" s="50">
         <v>45237</v>
@@ -2400,22 +2373,22 @@
         <v>0</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L21" s="48">
         <v>3</v>
@@ -2424,46 +2397,46 @@
         <v>1</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D22" s="50">
         <v>45239</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L22" s="48">
         <v>3</v>
@@ -2472,46 +2445,46 @@
         <v>1</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D23" s="50">
         <v>45242</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L23" s="48">
         <v>4</v>
@@ -2520,20 +2493,20 @@
         <v>0</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O23" s="52"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24" s="50">
         <v>45243</v>
@@ -2542,68 +2515,68 @@
         <v>0</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L24" s="57" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M24" s="48">
         <v>1</v>
       </c>
       <c r="N24" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O24" s="48"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D25" s="54">
         <v>45244</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L25" s="48">
         <v>1</v>
@@ -2612,70 +2585,70 @@
         <v>2</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O25" s="63" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D26" s="50">
         <v>45244</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F26" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="48" t="s">
-        <v>85</v>
-      </c>
       <c r="M26" s="48">
         <v>1</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O26" s="48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D27" s="50">
         <v>45245</v>
@@ -2684,22 +2657,22 @@
         <v>0</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L27" s="48">
         <v>2</v>
@@ -2708,20 +2681,20 @@
         <v>1</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O27" s="48"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28" s="50">
         <v>45247</v>
@@ -2730,22 +2703,22 @@
         <v>0</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L28" s="48">
         <v>2</v>
@@ -2754,44 +2727,44 @@
         <v>1</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O28" s="48"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D29" s="62">
         <v>45249</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I29" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L29" s="48">
         <v>3</v>
@@ -2800,43 +2773,43 @@
         <v>1</v>
       </c>
       <c r="N29" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O29" s="48"/>
     </row>
     <row r="30" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D30" s="50">
         <v>45250</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I30" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J30" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L30" s="48">
         <v>2</v>
@@ -2845,197 +2818,231 @@
         <v>1</v>
       </c>
       <c r="N30" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O30" s="55" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="10">
+        <v>34</v>
+      </c>
+      <c r="D31" s="13">
         <v>45260</v>
       </c>
-      <c r="E31" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="3" t="s">
-        <v>22</v>
+      <c r="E31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="A32" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="50">
         <v>45260</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="3" t="s">
-        <v>22</v>
+      <c r="E32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="A33" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="50">
         <v>45260</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="E33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="48">
+        <v>3</v>
+      </c>
+      <c r="M33" s="48">
+        <v>1</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" s="48"/>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="50">
-        <v>45260</v>
+        <v>31</v>
+      </c>
+      <c r="D34" s="54">
+        <v>45261</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I34" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J34" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M34" s="48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N34" s="47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O34" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="50">
-        <v>45260</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D35" s="54">
+        <v>45261</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L35" s="48">
         <v>3</v>
@@ -3043,616 +3050,558 @@
       <c r="M35" s="48">
         <v>1</v>
       </c>
-      <c r="N35" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="O35" s="48"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D36" s="54">
         <v>45261</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I36" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K36" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="M36" s="48" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="L36" s="48">
+        <v>2</v>
+      </c>
+      <c r="M36" s="48">
+        <v>1</v>
       </c>
       <c r="N36" s="47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O36" s="48" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="54">
+        <v>31</v>
+      </c>
+      <c r="D37" s="50">
         <v>45261</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H37" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I37" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L37" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" s="48">
         <v>1</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48" t="s">
-        <v>51</v>
-      </c>
+      <c r="N37" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="48"/>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D38" s="54">
         <v>45261</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>111</v>
+      <c r="E38" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="F38" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" s="48">
-        <v>2</v>
-      </c>
       <c r="M38" s="48">
         <v>1</v>
       </c>
-      <c r="N38" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" s="48" t="s">
-        <v>112</v>
+      <c r="N38" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="56" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>37</v>
+        <v>175</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>31</v>
       </c>
       <c r="D39" s="50">
         <v>45261</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>123</v>
+      <c r="E39" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L39" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" s="48">
         <v>1</v>
       </c>
       <c r="N39" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" s="48"/>
+        <v>74</v>
+      </c>
+      <c r="O39" s="56" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="54">
-        <v>45261</v>
+        <v>31</v>
+      </c>
+      <c r="D40" s="50">
+        <v>45264</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K40" s="48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L40" s="48" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="M40" s="48">
         <v>1</v>
       </c>
       <c r="N40" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="O40" s="56" t="s">
-        <v>182</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>37</v>
+        <v>189</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="50">
-        <v>45261</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>33</v>
+        <v>45264</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="F41" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="48"/>
+    </row>
+    <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="13">
+        <v>45268</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="J41" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="K41" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L41" s="48">
-        <v>3</v>
-      </c>
-      <c r="M41" s="48">
-        <v>1</v>
-      </c>
-      <c r="N41" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="O41" s="56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="50">
-        <v>45264</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J42" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="M42" s="48">
-        <v>1</v>
-      </c>
-      <c r="N42" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="O42" s="56"/>
+      <c r="M42" s="41">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>190</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="D43" s="13">
-        <v>45264</v>
+        <v>45268</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="13">
-        <v>45268</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>177</v>
+        <v>31</v>
+      </c>
+      <c r="D44" s="10">
+        <v>45270</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" s="41" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="L44" s="41">
+        <v>3</v>
       </c>
       <c r="M44" s="41">
         <v>1</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" s="45" t="s">
-        <v>178</v>
+        <v>74</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>200</v>
+        <v>70</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D45" s="13">
-        <v>45268</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>202</v>
+        <v>45474</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="M45" s="3">
+        <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O45" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="10">
-        <v>45270</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>97</v>
-      </c>
       <c r="F46" s="12" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L46" s="41">
-        <v>3</v>
-      </c>
-      <c r="M46" s="41">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="13">
-        <v>45474</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M47" s="3">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="13"/>
       <c r="E49" s="11"/>
       <c r="F49" s="12"/>
@@ -3667,9 +3616,9 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="13"/>
       <c r="E50" s="11"/>
       <c r="F50" s="12"/>
@@ -3681,12 +3630,12 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="13"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
@@ -3701,11 +3650,11 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="12"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3713,12 +3662,12 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="4"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="18"/>
+      <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="13"/>
@@ -3732,14 +3681,14 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="12"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3747,7 +3696,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
+      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
@@ -3766,31 +3715,31 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="14"/>
+      <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="23"/>
     </row>
     <row r="57" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="12"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -3800,14 +3749,14 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="O57" s="14"/>
     </row>
     <row r="58" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="22"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
@@ -3817,14 +3766,14 @@
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
-      <c r="O58" s="23"/>
+      <c r="O58" s="26"/>
     </row>
     <row r="59" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="16"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3834,30 +3783,30 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="14"/>
+      <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="26"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
       <c r="G61" s="3"/>
@@ -3889,9 +3838,9 @@
     </row>
     <row r="63" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="13"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="11"/>
       <c r="F63" s="12"/>
       <c r="G63" s="3"/>
@@ -3919,13 +3868,13 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
+      <c r="O64" s="27"/>
     </row>
     <row r="65" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="3"/>
@@ -3940,9 +3889,9 @@
     </row>
     <row r="66" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="13"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="12"/>
       <c r="G66" s="3"/>
@@ -3953,12 +3902,12 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="27"/>
+      <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="13"/>
       <c r="E67" s="11"/>
       <c r="F67" s="12"/>
@@ -3976,7 +3925,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="11"/>
       <c r="F68" s="12"/>
       <c r="G68" s="3"/>
@@ -3993,7 +3942,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="11"/>
       <c r="F69" s="12"/>
       <c r="G69" s="3"/>
@@ -4044,7 +3993,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="12"/>
       <c r="G72" s="3"/>
@@ -4061,7 +4010,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="10"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="11"/>
       <c r="F73" s="12"/>
       <c r="G73" s="3"/>
@@ -4078,7 +4027,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="10"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="11"/>
       <c r="F74" s="12"/>
       <c r="G74" s="3"/>
@@ -4095,7 +4044,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="11"/>
       <c r="F75" s="12"/>
       <c r="G75" s="3"/>
@@ -4112,7 +4061,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="11"/>
       <c r="F76" s="12"/>
       <c r="G76" s="3"/>
@@ -4143,7 +4092,7 @@
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -4157,73 +4106,38 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-    </row>
-    <row r="79" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="18"/>
+      <c r="O78" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O48">
-    <sortCondition ref="D2:D48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
+    <sortCondition ref="D2:D46"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1" xr:uid="{72FC676A-AC40-474F-8A00-97CE0920DFE3}"/>
-    <hyperlink ref="E36" r:id="rId2" xr:uid="{408C50BB-3FB7-874E-A9D3-52CD8A890A65}"/>
-    <hyperlink ref="E33" r:id="rId3" xr:uid="{D7928A85-CB71-7547-977A-88820EA34394}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{659D0A29-DC1B-AC4D-9C44-351C433315D1}"/>
-    <hyperlink ref="E34" r:id="rId5" xr:uid="{1FFB3DA8-A83B-604C-AF00-CC9B688D5C41}"/>
-    <hyperlink ref="E37" r:id="rId6" xr:uid="{DF48D68A-4DF4-2D4D-A406-7ADF732467DF}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{37DCDDA5-A0E3-BC40-998F-F7496011D4A9}"/>
-    <hyperlink ref="E48" r:id="rId8" xr:uid="{6C8DEB3D-2489-DA49-9B36-DF6C5B60F13D}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{4967B497-2A7B-1F46-AF30-82CC9B2263B1}"/>
-    <hyperlink ref="E26" r:id="rId10" xr:uid="{EC7BEBD2-1694-3549-9A36-182EA10CA153}"/>
-    <hyperlink ref="E2" r:id="rId11" xr:uid="{C9C6695B-B3C2-BE40-8961-F7D56CC26901}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{33B448B3-30F8-6E41-BC3B-80126B2655E1}"/>
-    <hyperlink ref="E47" r:id="rId13" xr:uid="{FBE82E48-900D-DC40-AA49-5972688C3486}"/>
-    <hyperlink ref="E46" r:id="rId14" xr:uid="{B240C270-AEF3-6445-9837-A4214B538FE6}"/>
-    <hyperlink ref="E11" r:id="rId15" xr:uid="{EFBDB97B-62C6-734E-8C18-3B829D420377}"/>
-    <hyperlink ref="E38" r:id="rId16" xr:uid="{4A6635C5-BAB2-5147-895C-A55175AB2971}"/>
-    <hyperlink ref="E3" r:id="rId17" xr:uid="{F4FD0EFF-3A5D-7747-8CEC-E7BD94FB215A}"/>
-    <hyperlink ref="E39" r:id="rId18" xr:uid="{C5312910-E74B-D54B-BB70-504F4CC4A3B4}"/>
-    <hyperlink ref="O17" r:id="rId19" xr:uid="{7EF1A921-F70B-7945-97B8-0DF724F990EE}"/>
-    <hyperlink ref="E29" r:id="rId20" xr:uid="{32446990-0D28-404E-83D0-7FAC628BBBC6}"/>
-    <hyperlink ref="O40" r:id="rId21" xr:uid="{ADEEE20E-9AE4-284E-9698-34FC8DD78141}"/>
-    <hyperlink ref="O44" r:id="rId22" xr:uid="{EFC9D24B-C88B-624A-AA68-95CFAA342D0B}"/>
-    <hyperlink ref="O41" r:id="rId23" xr:uid="{2DBB6575-36C7-D441-88D9-FFE8C6E51929}"/>
-    <hyperlink ref="E30" r:id="rId24" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
-    <hyperlink ref="E43" r:id="rId25" xr:uid="{FB1B3BCA-EEA9-AC4B-9401-89680D93C3EC}"/>
-    <hyperlink ref="E45" r:id="rId26" xr:uid="{A352118D-94A1-0C40-9BAB-D46A19B976E4}"/>
+    <hyperlink ref="E34" r:id="rId1" xr:uid="{408C50BB-3FB7-874E-A9D3-52CD8A890A65}"/>
+    <hyperlink ref="E31" r:id="rId2" xr:uid="{D7928A85-CB71-7547-977A-88820EA34394}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{659D0A29-DC1B-AC4D-9C44-351C433315D1}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{1FFB3DA8-A83B-604C-AF00-CC9B688D5C41}"/>
+    <hyperlink ref="E35" r:id="rId5" xr:uid="{DF48D68A-4DF4-2D4D-A406-7ADF732467DF}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{37DCDDA5-A0E3-BC40-998F-F7496011D4A9}"/>
+    <hyperlink ref="E46" r:id="rId7" xr:uid="{6C8DEB3D-2489-DA49-9B36-DF6C5B60F13D}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{4967B497-2A7B-1F46-AF30-82CC9B2263B1}"/>
+    <hyperlink ref="E26" r:id="rId9" xr:uid="{EC7BEBD2-1694-3549-9A36-182EA10CA153}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{C9C6695B-B3C2-BE40-8961-F7D56CC26901}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{33B448B3-30F8-6E41-BC3B-80126B2655E1}"/>
+    <hyperlink ref="E45" r:id="rId12" xr:uid="{FBE82E48-900D-DC40-AA49-5972688C3486}"/>
+    <hyperlink ref="E44" r:id="rId13" xr:uid="{B240C270-AEF3-6445-9837-A4214B538FE6}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{EFBDB97B-62C6-734E-8C18-3B829D420377}"/>
+    <hyperlink ref="E36" r:id="rId15" xr:uid="{4A6635C5-BAB2-5147-895C-A55175AB2971}"/>
+    <hyperlink ref="E3" r:id="rId16" xr:uid="{F4FD0EFF-3A5D-7747-8CEC-E7BD94FB215A}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{C5312910-E74B-D54B-BB70-504F4CC4A3B4}"/>
+    <hyperlink ref="O17" r:id="rId18" xr:uid="{7EF1A921-F70B-7945-97B8-0DF724F990EE}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{32446990-0D28-404E-83D0-7FAC628BBBC6}"/>
+    <hyperlink ref="O38" r:id="rId20" xr:uid="{ADEEE20E-9AE4-284E-9698-34FC8DD78141}"/>
+    <hyperlink ref="O42" r:id="rId21" xr:uid="{EFC9D24B-C88B-624A-AA68-95CFAA342D0B}"/>
+    <hyperlink ref="O39" r:id="rId22" xr:uid="{2DBB6575-36C7-D441-88D9-FFE8C6E51929}"/>
+    <hyperlink ref="E30" r:id="rId23" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
+    <hyperlink ref="E41" r:id="rId24" xr:uid="{FB1B3BCA-EEA9-AC4B-9401-89680D93C3EC}"/>
+    <hyperlink ref="E43" r:id="rId25" xr:uid="{A352118D-94A1-0C40-9BAB-D46A19B976E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4259,22 +4173,22 @@
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -4285,66 +4199,66 @@
     </row>
     <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="28">
         <v>45226</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9">
         <v>45231</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
@@ -4361,25 +4275,25 @@
         <v>45231</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -4390,13 +4304,13 @@
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5" s="9">
         <v>45231</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -4413,32 +4327,32 @@
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B6" s="34">
         <v>45231</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -4446,32 +4360,32 @@
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B7" s="13">
         <v>45231</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -4479,35 +4393,35 @@
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="13">
         <v>45231</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4518,7 +4432,7 @@
         <v>45231</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -4535,28 +4449,28 @@
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10" s="13">
         <v>45231</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="3">
@@ -4568,31 +4482,31 @@
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" s="13">
         <v>45235</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -4603,31 +4517,31 @@
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12" s="13">
         <v>45239</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -4638,31 +4552,31 @@
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="13">
         <v>45242</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
@@ -4673,31 +4587,31 @@
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" s="10">
         <v>45244</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -4708,34 +4622,34 @@
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" s="13">
         <v>45244</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -4743,13 +4657,13 @@
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="13">
         <v>45260</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -4758,39 +4672,39 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="10">
         <v>45261</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J17" s="3">
         <v>3</v>
@@ -4807,21 +4721,21 @@
         <v>45261</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
@@ -4832,31 +4746,31 @@
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B19" s="10">
         <v>45261</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J19" s="3">
         <v>2</v>
@@ -4867,31 +4781,31 @@
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B20" s="13">
         <v>45261</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J20" s="3">
         <v>2</v>
@@ -4902,31 +4816,31 @@
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" s="10">
         <v>45270</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J21" s="3">
         <v>3</v>
@@ -4943,7 +4857,7 @@
         <v>45474</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -4952,7 +4866,7 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K22" s="3">
         <v>3</v>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBBBF85-27EA-6C40-8D44-6D93DF62F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75398BA2-9FA0-DC44-922A-3FA435D4A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75398BA2-9FA0-DC44-922A-3FA435D4A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF596E7-8C60-C745-9E5C-5613CDDDC5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="201">
   <si>
     <t>MathJobs</t>
   </si>
@@ -631,6 +631,15 @@
   </si>
   <si>
     <t>2+</t>
+  </si>
+  <si>
+    <t>De Anza College</t>
+  </si>
+  <si>
+    <t>https://fhda.csod.com/ux/ats/careersite/4/home/requisition/1391?c=fhda</t>
+  </si>
+  <si>
+    <t>See Posting</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1432,8 @@
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD32"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3565,21 +3574,51 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="13">
+        <v>45306</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -4138,6 +4177,7 @@
     <hyperlink ref="E30" r:id="rId23" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
     <hyperlink ref="E41" r:id="rId24" xr:uid="{FB1B3BCA-EEA9-AC4B-9401-89680D93C3EC}"/>
     <hyperlink ref="E43" r:id="rId25" xr:uid="{A352118D-94A1-0C40-9BAB-D46A19B976E4}"/>
+    <hyperlink ref="E47" r:id="rId26" xr:uid="{13A6C931-59E5-DE4E-B9DF-775DF6AFCB0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF596E7-8C60-C745-9E5C-5613CDDDC5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D41BE6-5993-9D4E-8B85-417B6FF9A698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1432,8 +1432,8 @@
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3433,49 +3433,49 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="54">
         <v>45270</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="G44" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L44" s="41">
+      <c r="K44" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="48">
         <v>3</v>
       </c>
-      <c r="M44" s="41">
-        <v>1</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O44" s="3" t="s">
+      <c r="M44" s="48">
+        <v>1</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" s="48" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D41BE6-5993-9D4E-8B85-417B6FF9A698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9456D0-724C-984E-AD18-9AF40F4BDB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="194">
   <si>
     <t>MathJobs</t>
   </si>
@@ -540,18 +540,6 @@
     <t>Dartmouth-ANT</t>
   </si>
   <si>
-    <t>New Mexico State University</t>
-  </si>
-  <si>
-    <t>NMSU-TTAPTOP</t>
-  </si>
-  <si>
-    <t>MathJobs &amp; Site</t>
-  </si>
-  <si>
-    <t>http://careers.nmsu.edu/cw/en-us/job/498628</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -613,15 +601,6 @@
   </si>
   <si>
     <t>https://www.4cdcareers.net/postings/10142</t>
-  </si>
-  <si>
-    <t>Laboratory Coordinator</t>
-  </si>
-  <si>
-    <t>Diablo Valley College</t>
-  </si>
-  <si>
-    <t>https://www.4cdcareers.net/postings/10163</t>
   </si>
   <si>
     <t>University of Hawaii</t>
@@ -918,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1040,9 +1019,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,9 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C862073-6331-234F-B2D0-82C360D0D85F}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1494,1343 +1467,1343 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="70" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="57">
         <v>45214</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="48">
+      <c r="F2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="46">
         <v>3</v>
       </c>
-      <c r="M2" s="48">
-        <v>1</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="55" t="s">
+      <c r="M2" s="46">
+        <v>1</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="52">
         <v>45222</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="48" t="s">
+      <c r="G3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="48">
-        <v>1</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="48" t="s">
+      <c r="M3" s="46">
+        <v>1</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="48">
         <v>45222</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="48">
+      <c r="F4" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="46">
         <v>3</v>
       </c>
-      <c r="M4" s="48">
-        <v>1</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="48"/>
+      <c r="M4" s="46">
+        <v>1</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <v>45226</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="48" t="s">
+      <c r="F5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="51" t="s">
+      <c r="N5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="48">
         <v>45231</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="48">
+      <c r="G6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="46">
         <v>2</v>
       </c>
-      <c r="M6" s="52">
-        <v>1</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="48" t="s">
+      <c r="M6" s="50">
+        <v>1</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="52">
         <v>45231</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="48" t="s">
+      <c r="F7" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="48">
-        <v>1</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="48"/>
+      <c r="M7" s="46">
+        <v>1</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="48">
         <v>45231</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="48">
+      <c r="F8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="46">
         <v>3</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="55"/>
+      <c r="N8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="53"/>
     </row>
     <row r="9" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="48">
         <v>45231</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="52">
+      <c r="F9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="50">
         <v>3</v>
       </c>
-      <c r="M9" s="48">
-        <v>1</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="48" t="s">
+      <c r="M9" s="46">
+        <v>1</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="46" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="48">
         <v>45231</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="48">
+      <c r="F10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="46">
         <v>3</v>
       </c>
-      <c r="M10" s="48">
-        <v>1</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="48"/>
+      <c r="M10" s="46">
+        <v>1</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="48">
         <v>45231</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="48">
+      <c r="F11" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="46">
         <v>3</v>
       </c>
-      <c r="M11" s="48">
-        <v>1</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="48" t="s">
+      <c r="M11" s="46">
+        <v>1</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="46" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>45231</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="48">
+      <c r="F12" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="46">
         <v>3</v>
       </c>
-      <c r="M12" s="48">
-        <v>1</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="48"/>
+      <c r="M12" s="46">
+        <v>1</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="48">
         <v>45231</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="48" t="s">
+      <c r="F13" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="48">
-        <v>1</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="48"/>
+      <c r="M13" s="46">
+        <v>1</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="48">
         <v>45231</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="48">
+      <c r="F14" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="46">
         <v>2</v>
       </c>
-      <c r="M14" s="48">
-        <v>1</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="48"/>
+      <c r="M14" s="46">
+        <v>1</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="48">
         <v>45231</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="48">
+      <c r="F15" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="46">
         <v>3</v>
       </c>
-      <c r="M15" s="48">
-        <v>1</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="48"/>
+      <c r="M15" s="46">
+        <v>1</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="48">
         <v>45231</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="48">
+      <c r="F16" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="46">
         <v>3</v>
       </c>
-      <c r="M16" s="48">
-        <v>1</v>
-      </c>
-      <c r="N16" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="48"/>
+      <c r="M16" s="46">
+        <v>1</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="48">
         <v>45235</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="53" t="s">
+      <c r="F17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="48">
-        <v>1</v>
-      </c>
-      <c r="M17" s="48">
+      <c r="K17" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="46">
+        <v>1</v>
+      </c>
+      <c r="M17" s="46">
         <v>2</v>
       </c>
-      <c r="N17" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="56" t="s">
+      <c r="N17" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="54" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="48">
         <v>45235</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="48">
+      <c r="F18" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="46">
         <v>2</v>
       </c>
-      <c r="M18" s="48">
-        <v>1</v>
-      </c>
-      <c r="N18" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="48"/>
+      <c r="M18" s="46">
+        <v>1</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="48">
         <v>45236</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="48" t="s">
+      <c r="F19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="48">
+      <c r="J19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="46">
         <v>3</v>
       </c>
-      <c r="M19" s="48">
-        <v>1</v>
-      </c>
-      <c r="N19" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="48" t="s">
+      <c r="M19" s="46">
+        <v>1</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="46" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="48">
         <v>45236</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="48">
+      <c r="F20" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="46">
         <v>3</v>
       </c>
-      <c r="M20" s="48">
-        <v>1</v>
-      </c>
-      <c r="N20" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="48"/>
+      <c r="M20" s="46">
+        <v>1</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="46"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="48">
         <v>45237</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="48" t="s">
+      <c r="F21" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="48">
+      <c r="J21" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="46">
         <v>3</v>
       </c>
-      <c r="M21" s="48">
-        <v>1</v>
-      </c>
-      <c r="N21" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="48" t="s">
+      <c r="M21" s="46">
+        <v>1</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="46" t="s">
         <v>155</v>
       </c>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="48">
         <v>45239</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="48">
+      <c r="F22" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="46">
         <v>3</v>
       </c>
-      <c r="M22" s="48">
-        <v>1</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O22" s="55" t="s">
+      <c r="M22" s="46">
+        <v>1</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="53" t="s">
         <v>83</v>
       </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="48">
         <v>45242</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="48">
+      <c r="F23" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="46">
         <v>4</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M23" s="46">
         <v>0</v>
       </c>
-      <c r="N23" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O23" s="52"/>
+      <c r="N23" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="50"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="48">
         <v>45243</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="57" t="s">
+      <c r="F24" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="48">
-        <v>1</v>
-      </c>
-      <c r="N24" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O24" s="48"/>
+      <c r="M24" s="46">
+        <v>1</v>
+      </c>
+      <c r="N24" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="46"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="52">
         <v>45244</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="48" t="s">
+      <c r="F25" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="48">
-        <v>1</v>
-      </c>
-      <c r="M25" s="48">
+      <c r="J25" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="46">
+        <v>1</v>
+      </c>
+      <c r="M25" s="46">
         <v>2</v>
       </c>
-      <c r="N25" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O25" s="63" t="s">
+      <c r="N25" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="61" t="s">
         <v>96</v>
       </c>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="48">
         <v>45244</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="48" t="s">
+      <c r="F26" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M26" s="48">
-        <v>1</v>
-      </c>
-      <c r="N26" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O26" s="48" t="s">
+      <c r="M26" s="46">
+        <v>1</v>
+      </c>
+      <c r="N26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="46" t="s">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="48">
         <v>45245</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="48">
+      <c r="F27" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="46">
         <v>2</v>
       </c>
-      <c r="M27" s="48">
-        <v>1</v>
-      </c>
-      <c r="N27" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O27" s="48"/>
+      <c r="M27" s="46">
+        <v>1</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="46"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="52" t="s">
+      <c r="A28" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="48">
         <v>45247</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="48">
+      <c r="F28" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="46">
         <v>2</v>
       </c>
-      <c r="M28" s="48">
-        <v>1</v>
-      </c>
-      <c r="N28" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O28" s="48"/>
+      <c r="M28" s="46">
+        <v>1</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="46"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="60">
         <v>45249</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="48">
+      <c r="F29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="46">
         <v>3</v>
       </c>
-      <c r="M29" s="48">
-        <v>1</v>
-      </c>
-      <c r="N29" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="48"/>
+      <c r="M29" s="46">
+        <v>1</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="48">
         <v>45250</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="48">
+        <v>181</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="46">
         <v>2</v>
       </c>
-      <c r="M30" s="48">
-        <v>1</v>
-      </c>
-      <c r="N30" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O30" s="55" t="s">
-        <v>186</v>
+      <c r="M30" s="46">
+        <v>1</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O30" s="53" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2881,527 +2854,527 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="48">
         <v>45260</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="48" t="s">
+      <c r="F32" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="48" t="s">
+      <c r="M32" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="N32" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" s="48" t="s">
+      <c r="N32" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="46" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="48">
         <v>45260</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="48">
+      <c r="F33" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="46">
         <v>3</v>
       </c>
-      <c r="M33" s="48">
-        <v>1</v>
-      </c>
-      <c r="N33" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O33" s="48"/>
+      <c r="M33" s="46">
+        <v>1</v>
+      </c>
+      <c r="N33" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="52">
         <v>45261</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="48" t="s">
+      <c r="F34" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="M34" s="48" t="s">
+      <c r="M34" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="N34" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O34" s="48" t="s">
+      <c r="N34" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="46" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="52">
         <v>45261</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="48">
+      <c r="F35" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="46">
         <v>3</v>
       </c>
-      <c r="M35" s="48">
-        <v>1</v>
-      </c>
-      <c r="N35" s="47"/>
-      <c r="O35" s="48" t="s">
+      <c r="M35" s="46">
+        <v>1</v>
+      </c>
+      <c r="N35" s="45"/>
+      <c r="O35" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="52">
         <v>45261</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" s="48">
+      <c r="F36" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="46">
         <v>2</v>
       </c>
-      <c r="M36" s="48">
-        <v>1</v>
-      </c>
-      <c r="N36" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="O36" s="48" t="s">
+      <c r="M36" s="46">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" s="46" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="48">
         <v>45261</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" s="48">
+      <c r="F37" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="46">
         <v>2</v>
       </c>
-      <c r="M37" s="48">
-        <v>1</v>
-      </c>
-      <c r="N37" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="O37" s="48"/>
+      <c r="M37" s="46">
+        <v>1</v>
+      </c>
+      <c r="N37" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="46"/>
     </row>
     <row r="38" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="48" t="s">
+      <c r="A38" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="52">
         <v>45261</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38" s="48" t="s">
+      <c r="F38" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M38" s="48">
-        <v>1</v>
-      </c>
-      <c r="N38" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" s="56" t="s">
-        <v>174</v>
+      <c r="M38" s="46">
+        <v>1</v>
+      </c>
+      <c r="N38" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="54" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="52" t="s">
+      <c r="A39" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="48">
         <v>45261</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="48">
+      <c r="F39" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="46">
         <v>3</v>
       </c>
-      <c r="M39" s="48">
-        <v>1</v>
-      </c>
-      <c r="N39" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O39" s="56" t="s">
-        <v>177</v>
+      <c r="M39" s="46">
+        <v>1</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="48" t="s">
+      <c r="A40" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="48">
         <v>45264</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L40" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="M40" s="48">
-        <v>1</v>
-      </c>
-      <c r="N40" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O40" s="56"/>
+      <c r="F40" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="M40" s="46">
+        <v>1</v>
+      </c>
+      <c r="N40" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" s="54"/>
     </row>
     <row r="41" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="48" t="s">
+      <c r="A41" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="48">
         <v>45264</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J41" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="K41" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="M41" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="N41" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="O41" s="48"/>
+      <c r="K41" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="46"/>
     </row>
     <row r="42" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="A42" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="13">
-        <v>45268</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="M42" s="41">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O42" s="45" t="s">
-        <v>170</v>
+      <c r="D42" s="52">
+        <v>45270</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="46">
+        <v>3</v>
+      </c>
+      <c r="M42" s="46">
+        <v>1</v>
+      </c>
+      <c r="N42" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="46" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>192</v>
+        <v>70</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="13">
-        <v>45268</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>194</v>
+        <v>45474</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>73</v>
@@ -3416,84 +3389,86 @@
         <v>73</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>74</v>
+      <c r="M43" s="3">
+        <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O43" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="54">
-        <v>45270</v>
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="L44" s="48">
-        <v>3</v>
-      </c>
-      <c r="M44" s="48">
-        <v>1</v>
-      </c>
-      <c r="N44" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O44" s="48" t="s">
-        <v>94</v>
+        <v>53</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D45" s="13">
-        <v>45474</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>69</v>
+        <v>45306</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>73</v>
@@ -3505,125 +3480,65 @@
         <v>74</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="13">
-        <v>45306</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="13"/>
       <c r="E48" s="11"/>
       <c r="F48" s="12"/>
@@ -3635,12 +3550,12 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="13"/>
       <c r="E49" s="11"/>
       <c r="F49" s="12"/>
@@ -3655,11 +3570,11 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="12"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -3667,12 +3582,12 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="M50" s="4"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="18"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="13"/>
@@ -3686,14 +3601,14 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="O51" s="14"/>
     </row>
     <row r="52" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="12"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3701,7 +3616,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
+      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
@@ -3720,31 +3635,31 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="14"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="11"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="12"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -3754,14 +3669,14 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="22"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
@@ -3771,14 +3686,14 @@
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
-      <c r="O56" s="23"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -3788,30 +3703,30 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="14"/>
+      <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="26"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="3"/>
@@ -3843,9 +3758,9 @@
     </row>
     <row r="61" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="13"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
       <c r="G61" s="3"/>
@@ -3873,13 +3788,13 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="10"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="11"/>
       <c r="F63" s="12"/>
       <c r="G63" s="3"/>
@@ -3894,9 +3809,9 @@
     </row>
     <row r="64" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="11"/>
       <c r="F64" s="12"/>
       <c r="G64" s="3"/>
@@ -3907,12 +3822,12 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="27"/>
+      <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="13"/>
       <c r="E65" s="11"/>
       <c r="F65" s="12"/>
@@ -3930,7 +3845,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="10"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="11"/>
       <c r="F66" s="12"/>
       <c r="G66" s="3"/>
@@ -3947,7 +3862,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="11"/>
       <c r="F67" s="12"/>
       <c r="G67" s="3"/>
@@ -3998,7 +3913,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="12"/>
       <c r="G70" s="3"/>
@@ -4015,7 +3930,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="10"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="11"/>
       <c r="F71" s="12"/>
       <c r="G71" s="3"/>
@@ -4032,7 +3947,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="10"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="11"/>
       <c r="F72" s="12"/>
       <c r="G72" s="3"/>
@@ -4049,7 +3964,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="11"/>
       <c r="F73" s="12"/>
       <c r="G73" s="3"/>
@@ -4066,7 +3981,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="11"/>
       <c r="F74" s="12"/>
       <c r="G74" s="3"/>
@@ -4097,7 +4012,7 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -4111,45 +4026,11 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="18"/>
+      <c r="O76" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
-    <sortCondition ref="D2:D46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O44">
+    <sortCondition ref="D2:D44"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E34" r:id="rId1" xr:uid="{408C50BB-3FB7-874E-A9D3-52CD8A890A65}"/>
@@ -4158,13 +4039,13 @@
     <hyperlink ref="E32" r:id="rId4" xr:uid="{1FFB3DA8-A83B-604C-AF00-CC9B688D5C41}"/>
     <hyperlink ref="E35" r:id="rId5" xr:uid="{DF48D68A-4DF4-2D4D-A406-7ADF732467DF}"/>
     <hyperlink ref="E22" r:id="rId6" xr:uid="{37DCDDA5-A0E3-BC40-998F-F7496011D4A9}"/>
-    <hyperlink ref="E46" r:id="rId7" xr:uid="{6C8DEB3D-2489-DA49-9B36-DF6C5B60F13D}"/>
+    <hyperlink ref="E44" r:id="rId7" xr:uid="{6C8DEB3D-2489-DA49-9B36-DF6C5B60F13D}"/>
     <hyperlink ref="E23" r:id="rId8" xr:uid="{4967B497-2A7B-1F46-AF30-82CC9B2263B1}"/>
     <hyperlink ref="E26" r:id="rId9" xr:uid="{EC7BEBD2-1694-3549-9A36-182EA10CA153}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{C9C6695B-B3C2-BE40-8961-F7D56CC26901}"/>
     <hyperlink ref="E8" r:id="rId11" xr:uid="{33B448B3-30F8-6E41-BC3B-80126B2655E1}"/>
-    <hyperlink ref="E45" r:id="rId12" xr:uid="{FBE82E48-900D-DC40-AA49-5972688C3486}"/>
-    <hyperlink ref="E44" r:id="rId13" xr:uid="{B240C270-AEF3-6445-9837-A4214B538FE6}"/>
+    <hyperlink ref="E43" r:id="rId12" xr:uid="{FBE82E48-900D-DC40-AA49-5972688C3486}"/>
+    <hyperlink ref="E42" r:id="rId13" xr:uid="{B240C270-AEF3-6445-9837-A4214B538FE6}"/>
     <hyperlink ref="E11" r:id="rId14" xr:uid="{EFBDB97B-62C6-734E-8C18-3B829D420377}"/>
     <hyperlink ref="E36" r:id="rId15" xr:uid="{4A6635C5-BAB2-5147-895C-A55175AB2971}"/>
     <hyperlink ref="E3" r:id="rId16" xr:uid="{F4FD0EFF-3A5D-7747-8CEC-E7BD94FB215A}"/>
@@ -4172,12 +4053,10 @@
     <hyperlink ref="O17" r:id="rId18" xr:uid="{7EF1A921-F70B-7945-97B8-0DF724F990EE}"/>
     <hyperlink ref="E29" r:id="rId19" xr:uid="{32446990-0D28-404E-83D0-7FAC628BBBC6}"/>
     <hyperlink ref="O38" r:id="rId20" xr:uid="{ADEEE20E-9AE4-284E-9698-34FC8DD78141}"/>
-    <hyperlink ref="O42" r:id="rId21" xr:uid="{EFC9D24B-C88B-624A-AA68-95CFAA342D0B}"/>
-    <hyperlink ref="O39" r:id="rId22" xr:uid="{2DBB6575-36C7-D441-88D9-FFE8C6E51929}"/>
-    <hyperlink ref="E30" r:id="rId23" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
-    <hyperlink ref="E41" r:id="rId24" xr:uid="{FB1B3BCA-EEA9-AC4B-9401-89680D93C3EC}"/>
-    <hyperlink ref="E43" r:id="rId25" xr:uid="{A352118D-94A1-0C40-9BAB-D46A19B976E4}"/>
-    <hyperlink ref="E47" r:id="rId26" xr:uid="{13A6C931-59E5-DE4E-B9DF-775DF6AFCB0E}"/>
+    <hyperlink ref="O39" r:id="rId21" xr:uid="{2DBB6575-36C7-D441-88D9-FFE8C6E51929}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{F84FB1B5-B1B8-0849-8E81-BA0B60953057}"/>
+    <hyperlink ref="E41" r:id="rId23" xr:uid="{FB1B3BCA-EEA9-AC4B-9401-89680D93C3EC}"/>
+    <hyperlink ref="E45" r:id="rId24" xr:uid="{13A6C931-59E5-DE4E-B9DF-775DF6AFCB0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4247,22 +4126,22 @@
       <c r="C2" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -4282,22 +4161,22 @@
       <c r="C3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>135</v>
       </c>
       <c r="J3" s="3">
@@ -4317,22 +4196,22 @@
       <c r="C4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="J4" s="3">
@@ -4375,19 +4254,19 @@
       <c r="C6" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>137</v>
       </c>
       <c r="I6" s="39"/>
@@ -4408,19 +4287,19 @@
       <c r="C7" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="42" t="s">
         <v>137</v>
       </c>
       <c r="I7" s="40"/>
@@ -4441,19 +4320,19 @@
       <c r="C8" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>137</v>
       </c>
       <c r="I8" s="40"/>
@@ -4497,19 +4376,19 @@
       <c r="C10" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="42" t="s">
         <v>137</v>
       </c>
       <c r="I10" s="40"/>
@@ -4530,22 +4409,22 @@
       <c r="C11" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>139</v>
       </c>
       <c r="J11" s="3">
@@ -4565,22 +4444,22 @@
       <c r="C12" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>139</v>
       </c>
       <c r="J12" s="3">
@@ -4600,22 +4479,22 @@
       <c r="C13" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="41" t="s">
         <v>139</v>
       </c>
       <c r="J13" s="3">
@@ -4635,22 +4514,22 @@
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="41" t="s">
         <v>139</v>
       </c>
       <c r="J14" s="3">
@@ -4670,22 +4549,22 @@
       <c r="C15" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>137</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -4728,22 +4607,22 @@
       <c r="C17" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="41" t="s">
         <v>139</v>
       </c>
       <c r="J17" s="3">
@@ -4763,18 +4642,18 @@
       <c r="C18" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>137</v>
       </c>
       <c r="E18" s="38"/>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>137</v>
       </c>
       <c r="H18" s="38"/>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>137</v>
       </c>
       <c r="J18" s="3">
@@ -4794,22 +4673,22 @@
       <c r="C19" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>135</v>
       </c>
       <c r="J19" s="3">
@@ -4829,22 +4708,22 @@
       <c r="C20" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="42" t="s">
         <v>135</v>
       </c>
       <c r="J20" s="3">
@@ -4864,22 +4743,22 @@
       <c r="C21" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="41" t="s">
         <v>139</v>
       </c>
       <c r="J21" s="3">

--- a/Tenure Track 23-24/TT23.xlsx
+++ b/Tenure Track 23-24/TT23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettebruce/Documents/GitHub/Application-Materials/Tenure Track 23-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9456D0-724C-984E-AD18-9AF40F4BDB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9FBD5F-3A2E-D347-9CBA-B74419A16ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{FC4BAEE4-913F-A74A-BB8A-E591CDEA97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +696,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5D6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1080,6 +1086,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1426,8 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,19 +1582,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="64">
         <v>45222</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="65" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -1745,19 +1766,19 @@
       <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="64">
         <v>45231</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="66" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="47" t="s">
@@ -2669,19 +2690,19 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="64">
         <v>45247</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="65" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="47" t="s">
@@ -2854,19 +2875,19 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="57">
         <v>45260</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="58" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="47" t="s">
@@ -3177,19 +3198,19 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="64">
         <v>45261</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="65" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="47" t="s">
